--- a/Data/Tables/SoilDefine.xlsx
+++ b/Data/Tables/SoilDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="11190"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,48 +29,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
-  <si>
-    <t>Int型数据</t>
-  </si>
-  <si>
-    <t>字符串数据</t>
-  </si>
-  <si>
-    <t>数组数据</t>
-  </si>
-  <si>
-    <t>用于复制的模板无任何作用</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>是否初始解锁</t>
+  </si>
+  <si>
+    <t>价格</t>
   </si>
   <si>
     <t>Integer</t>
   </si>
   <si>
-    <t>String</t>
-  </si>
-  <si>
     <t>Array</t>
   </si>
   <si>
+    <t>Boolean</t>
+  </si>
+  <si>
     <t>Key</t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Nature</t>
-  </si>
-  <si>
-    <t>年龄</t>
-  </si>
-  <si>
-    <t>小红</t>
-  </si>
-  <si>
-    <t>["温柔","平和"]</t>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>UnlockStart</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>[0,0]</t>
+  </si>
+  <si>
+    <t>[0,2]</t>
   </si>
 </sst>
 </file>
@@ -787,9 +787,9 @@
   <tableColumns count="5">
     <tableColumn id="1" name="Key"/>
     <tableColumn id="2" name="ID"/>
-    <tableColumn id="3" name="Name"/>
-    <tableColumn id="4" name="Nature"/>
-    <tableColumn id="5" name="年龄"/>
+    <tableColumn id="4" name="Position"/>
+    <tableColumn id="3" name="UnlockStart"/>
+    <tableColumn id="5" name="Price"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1048,75 +1048,75 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.1818181818182" customWidth="1"/>
-    <col min="7" max="7" width="11.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="7.33333333333333" customWidth="1"/>
+    <col min="4" max="4" width="12.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.9074074074074" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" spans="1:9">
+    <row r="1" spans="1:9">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="26" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="4">
-        <v>1001</v>
+        <v>101</v>
       </c>
       <c r="B4" s="4">
         <v>1001</v>
@@ -1124,47 +1124,60 @@
       <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>500</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>102</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4">
-        <v>13</v>
-      </c>
+      <c r="D5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>500</v>
+      </c>
+      <c r="F5" s="4"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
       <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
       <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
       <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1185,7 +1198,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1202,7 +1215,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Tables/SoilDefine.xlsx
+++ b/Data/Tables/SoilDefine.xlsx
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1143,7 +1143,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4">
         <v>500</v>

--- a/Data/Tables/SoilDefine.xlsx
+++ b/Data/Tables/SoilDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="11651" windowHeight="8927"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,10 +67,10 @@
     <t>列1</t>
   </si>
   <si>
-    <t>[0,0]</t>
-  </si>
-  <si>
-    <t>[0,2]</t>
+    <t>[-1,1]</t>
+  </si>
+  <si>
+    <t>[-2.5,0]</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
